--- a/modelagem/UseCaseDescription/DCU0015-AdicionarPersonagemAoCombate.xlsx
+++ b/modelagem/UseCaseDescription/DCU0015-AdicionarPersonagemAoCombate.xlsx
@@ -125,7 +125,18 @@
     <t>E1</t>
   </si>
   <si>
-    <t>Um ou mais campos obirgatórios foram deixados em branco</t>
+    <r>
+      <t xml:space="preserve">A </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+      </rPr>
+      <t>dialog</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> foi fechada</t>
+    </r>
   </si>
   <si>
     <t>Descrição:</t>
@@ -157,7 +168,7 @@
     </r>
   </si>
   <si>
-    <t>5.2 O sistema retorna para a tela de combate [DCU0005]</t>
+    <t>5.2 O Sistema retorna para a execução do caso de uso [DCU0005]</t>
   </si>
   <si>
     <t>6. Regras de Negócios</t>
@@ -485,7 +496,7 @@
       <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -2051,9 +2062,9 @@
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A31:D31"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="A25:B25"/>
